--- a/src/test/resources/testData/createCustomerTestData.xlsx
+++ b/src/test/resources/testData/createCustomerTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>english</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>This is a Rest Assured customer with TestNG using separate xlsx sheets</t>
+  </si>
+  <si>
+    <t>+38014881337</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -129,6 +132,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,7 +419,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,8 +465,8 @@
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2">
-        <v>38014881337</v>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
